--- a/data/trans_orig/MCS12_SP_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R2-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>159550</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>139448</v>
+        <v>139050</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>180535</v>
+        <v>179923</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3229335928080211</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2822466959844566</v>
+        <v>0.2814407670571805</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3654080081787651</v>
+        <v>0.3641701802088746</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>207</v>
@@ -765,19 +765,19 @@
         <v>200602</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>178915</v>
+        <v>180305</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>221500</v>
+        <v>223337</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4291059474774488</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3827154212785154</v>
+        <v>0.3856878007883006</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.473807802870306</v>
+        <v>0.4777371391289436</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>363</v>
@@ -786,19 +786,19 @@
         <v>360152</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>331748</v>
+        <v>330893</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>391650</v>
+        <v>389343</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3745526089037188</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.345012701648943</v>
+        <v>0.3441236784787136</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4073098614724237</v>
+        <v>0.4049108465576673</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>334514</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>313529</v>
+        <v>314141</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>354616</v>
+        <v>355014</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6770664071919789</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6345919918212349</v>
+        <v>0.6358298197911254</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7177533040155434</v>
+        <v>0.7185592329428195</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>282</v>
@@ -836,19 +836,19 @@
         <v>266887</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>245989</v>
+        <v>244152</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>288574</v>
+        <v>287184</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5708940525225511</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5261921971296936</v>
+        <v>0.5222628608710564</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6172845787214836</v>
+        <v>0.6143121992116993</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>625</v>
@@ -857,19 +857,19 @@
         <v>601401</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>569903</v>
+        <v>572210</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>629805</v>
+        <v>630660</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6254473910962811</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.592690138527576</v>
+        <v>0.5950891534423326</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6549872983510568</v>
+        <v>0.6558763215212863</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>253359</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>227829</v>
+        <v>227779</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>280531</v>
+        <v>280072</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3444772208041601</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3097652539338511</v>
+        <v>0.3096974775811464</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3814206161978639</v>
+        <v>0.380796879541409</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>289</v>
@@ -982,19 +982,19 @@
         <v>304052</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>277244</v>
+        <v>277864</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>328849</v>
+        <v>330129</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4860997741609239</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4432408143876347</v>
+        <v>0.4442319615140926</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5257421924909728</v>
+        <v>0.5277897028542203</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>534</v>
@@ -1003,19 +1003,19 @@
         <v>557411</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>523685</v>
+        <v>518180</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>597660</v>
+        <v>591512</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4095655201589511</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3847843273185182</v>
+        <v>0.3807394236785182</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4391387626545119</v>
+        <v>0.4346214820327917</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>482130</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>454958</v>
+        <v>455417</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>507660</v>
+        <v>507710</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6555227791958399</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6185793838021362</v>
+        <v>0.6192031204585909</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6902347460661489</v>
+        <v>0.6903025224188536</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>302</v>
@@ -1053,19 +1053,19 @@
         <v>321442</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>296645</v>
+        <v>295365</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>348250</v>
+        <v>347630</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.513900225839076</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4742578075090275</v>
+        <v>0.4722102971457801</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5567591856123657</v>
+        <v>0.5557680384859073</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>760</v>
@@ -1074,19 +1074,19 @@
         <v>803571</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>763322</v>
+        <v>769470</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>837297</v>
+        <v>842802</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5904344798410489</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5608612373454881</v>
+        <v>0.5653785179672082</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6152156726814815</v>
+        <v>0.6192605763214818</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>278847</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>249273</v>
+        <v>252606</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>302939</v>
+        <v>303361</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4366075259791101</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3903011654727361</v>
+        <v>0.3955198754305684</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4743293234570992</v>
+        <v>0.4749903143745591</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>384</v>
@@ -1199,19 +1199,19 @@
         <v>401186</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>378684</v>
+        <v>371902</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>428600</v>
+        <v>427276</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5816446399688953</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5490210499982651</v>
+        <v>0.5391880243456201</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6213906307605628</v>
+        <v>0.6194701903308566</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>649</v>
@@ -1220,19 +1220,19 @@
         <v>680033</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>640905</v>
+        <v>643363</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>721179</v>
+        <v>716947</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5119143797855484</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4824597057711864</v>
+        <v>0.4843101522764926</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.542887870123232</v>
+        <v>0.5397025595734338</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>359821</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>335729</v>
+        <v>335307</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>389395</v>
+        <v>386062</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.56339247402089</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.525670676542901</v>
+        <v>0.525009685625441</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6096988345272639</v>
+        <v>0.6044801245694317</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>274</v>
@@ -1270,19 +1270,19 @@
         <v>288558</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>261144</v>
+        <v>262468</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>311060</v>
+        <v>317842</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4183553600311048</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3786093692394371</v>
+        <v>0.3805298096691433</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4509789500017348</v>
+        <v>0.4608119756543799</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>622</v>
@@ -1291,19 +1291,19 @@
         <v>648379</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>607233</v>
+        <v>611465</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>687507</v>
+        <v>685049</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4880856202144516</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.457112129876768</v>
+        <v>0.4602974404265663</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5175402942288136</v>
+        <v>0.5156898477235073</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>234910</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>211748</v>
+        <v>210301</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>260121</v>
+        <v>258721</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4524914513827443</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4078760730485299</v>
+        <v>0.4050899485134289</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5010554391165741</v>
+        <v>0.4983585167430952</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>313</v>
@@ -1416,19 +1416,19 @@
         <v>322125</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>299600</v>
+        <v>300384</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>343134</v>
+        <v>341637</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6247070323107087</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5810240235316798</v>
+        <v>0.582543626658243</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6654509134791728</v>
+        <v>0.6625465480144076</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>526</v>
@@ -1437,19 +1437,19 @@
         <v>557035</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>524790</v>
+        <v>526967</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>587624</v>
+        <v>590135</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5383075762607011</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.507146597425788</v>
+        <v>0.5092504582552954</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5678687647077523</v>
+        <v>0.5702950845870066</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>284237</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>259026</v>
+        <v>260426</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>307399</v>
+        <v>308846</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5475085486172557</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4989445608834261</v>
+        <v>0.5016414832569049</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5921239269514704</v>
+        <v>0.5949100514865712</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>189</v>
@@ -1487,19 +1487,19 @@
         <v>193517</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>172508</v>
+        <v>174005</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>216042</v>
+        <v>215258</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3752929676892914</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3345490865208272</v>
+        <v>0.3374534519855923</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4189759764683202</v>
+        <v>0.4174563733417568</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>460</v>
@@ -1508,19 +1508,19 @@
         <v>477754</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>447165</v>
+        <v>444654</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>509999</v>
+        <v>507822</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4616924237392989</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4321312352922476</v>
+        <v>0.429704915412994</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.492853402574212</v>
+        <v>0.4907495417447047</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>216295</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>198586</v>
+        <v>197910</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>235666</v>
+        <v>236960</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5593216140365337</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5135265553455725</v>
+        <v>0.5117787376664032</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.609411445770939</v>
+        <v>0.6127580616814958</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>233</v>
@@ -1633,19 +1633,19 @@
         <v>238203</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>216675</v>
+        <v>218891</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>255089</v>
+        <v>256740</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5896320804596965</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5363440810300889</v>
+        <v>0.5418282625255785</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6314309228981712</v>
+        <v>0.6355173375015882</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>453</v>
@@ -1654,19 +1654,19 @@
         <v>454498</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>424437</v>
+        <v>426034</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>478278</v>
+        <v>482149</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5748079744482117</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.536788506111653</v>
+        <v>0.5388094791193647</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.604882571355307</v>
+        <v>0.6097781323585988</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>170415</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>151044</v>
+        <v>149750</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>188124</v>
+        <v>188800</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4406783859634663</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3905885542290611</v>
+        <v>0.3872419383185042</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4864734446544275</v>
+        <v>0.4882212623335968</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>163</v>
@@ -1704,19 +1704,19 @@
         <v>165783</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>148897</v>
+        <v>147246</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>187311</v>
+        <v>185095</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4103679195403035</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3685690771018292</v>
+        <v>0.3644826624984118</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4636559189699115</v>
+        <v>0.4581717374744215</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>335</v>
@@ -1725,19 +1725,19 @@
         <v>336198</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>312418</v>
+        <v>308547</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>366259</v>
+        <v>364662</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4251920255517883</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3951174286446928</v>
+        <v>0.390221867641401</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4632114938883471</v>
+        <v>0.4611905208806352</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>158429</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>141509</v>
+        <v>141986</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>174097</v>
+        <v>174144</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5414828835422356</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.483655469688651</v>
+        <v>0.4852843871682396</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5950336347195506</v>
+        <v>0.5951938145537292</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>210</v>
@@ -1850,19 +1850,19 @@
         <v>195915</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>177750</v>
+        <v>177121</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>212854</v>
+        <v>213645</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5712906496671755</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5183214105628223</v>
+        <v>0.5164882533270818</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6206837093821004</v>
+        <v>0.6229906095702057</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>374</v>
@@ -1871,19 +1871,19 @@
         <v>354344</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>331827</v>
+        <v>330590</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>379243</v>
+        <v>377421</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.557567577502066</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.522137174353163</v>
+        <v>0.520191054360023</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5967478106624384</v>
+        <v>0.5938798609059176</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>134154</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>118486</v>
+        <v>118439</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>151074</v>
+        <v>150597</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4585171164577643</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4049663652804494</v>
+        <v>0.4048061854462708</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5163445303113489</v>
+        <v>0.5147156128317604</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>161</v>
@@ -1921,19 +1921,19 @@
         <v>147019</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>130080</v>
+        <v>129289</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>165184</v>
+        <v>165813</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4287093503328245</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3793162906178995</v>
+        <v>0.3770093904297945</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4816785894371777</v>
+        <v>0.4835117466729182</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>300</v>
@@ -1942,19 +1942,19 @@
         <v>281173</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>256274</v>
+        <v>258096</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>303690</v>
+        <v>304927</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4424324224979341</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4032521893375617</v>
+        <v>0.4061201390940825</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4778628256468371</v>
+        <v>0.4798089456399774</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>114723</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>100994</v>
+        <v>100657</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>128291</v>
+        <v>128202</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5466048663177125</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4811916792114394</v>
+        <v>0.4795877805638128</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6112518451180344</v>
+        <v>0.6108257421761167</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>146</v>
@@ -2067,19 +2067,19 @@
         <v>168814</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>149597</v>
+        <v>149060</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>188238</v>
+        <v>188759</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5055697612708059</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4480182665664098</v>
+        <v>0.4464102669719833</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5637416761456135</v>
+        <v>0.5653031767595897</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>265</v>
@@ -2088,19 +2088,19 @@
         <v>283537</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>259238</v>
+        <v>258652</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>307636</v>
+        <v>306175</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5214077785333548</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4767233543270462</v>
+        <v>0.4756454998181564</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5657244211896614</v>
+        <v>0.5630381100771122</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>95160</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>81592</v>
+        <v>81681</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>108889</v>
+        <v>109226</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4533951336822875</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3887481548819657</v>
+        <v>0.3891742578238833</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5188083207885608</v>
+        <v>0.5204122194361872</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>144</v>
@@ -2138,19 +2138,19 @@
         <v>165094</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>145670</v>
+        <v>145149</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>184311</v>
+        <v>184848</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4944302387291941</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4362583238543867</v>
+        <v>0.4346968232404102</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5519817334335902</v>
+        <v>0.553589733028017</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>245</v>
@@ -2159,19 +2159,19 @@
         <v>260254</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>236155</v>
+        <v>237616</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>284553</v>
+        <v>285139</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4785922214666451</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4342755788103386</v>
+        <v>0.4369618899228878</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5232766456729535</v>
+        <v>0.5243545001818435</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>1416113</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1358756</v>
+        <v>1362283</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1474694</v>
+        <v>1476078</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4321971455065917</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.414692007002441</v>
+        <v>0.4157683260250113</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4500762056060974</v>
+        <v>0.45049844778864</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1782</v>
@@ -2284,19 +2284,19 @@
         <v>1830898</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1773308</v>
+        <v>1767675</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1888675</v>
+        <v>1886844</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5418144492936345</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5247719197396368</v>
+        <v>0.5231049842803942</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5589122367738513</v>
+        <v>0.5583703995645004</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3164</v>
@@ -2305,19 +2305,19 @@
         <v>3247011</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3168994</v>
+        <v>3168640</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3332888</v>
+        <v>3329927</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.487851131820891</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4761293522187702</v>
+        <v>0.4760762846735229</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5007538817860366</v>
+        <v>0.5003090539878823</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>1860430</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1801849</v>
+        <v>1800465</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1917787</v>
+        <v>1914260</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5678028544934083</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5499237943939027</v>
+        <v>0.54950155221136</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5853079929975593</v>
+        <v>0.5842316739749887</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1515</v>
@@ -2355,19 +2355,19 @@
         <v>1548299</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1490522</v>
+        <v>1492353</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1605889</v>
+        <v>1611522</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4581855507063654</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4410877632261487</v>
+        <v>0.4416296004354996</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4752280802603633</v>
+        <v>0.4768950157196057</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3347</v>
@@ -2376,19 +2376,19 @@
         <v>3408730</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3322853</v>
+        <v>3325814</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3486747</v>
+        <v>3487101</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.512148868179109</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4992461182139633</v>
+        <v>0.4996909460121177</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5238706477812297</v>
+        <v>0.5239237153264772</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>160253</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>140640</v>
+        <v>140507</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>180943</v>
+        <v>180837</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3528668652696529</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3096807762633323</v>
+        <v>0.3093881048646393</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3984240661073662</v>
+        <v>0.39819239866696</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>203</v>
@@ -2744,19 +2744,19 @@
         <v>210948</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>189624</v>
+        <v>189471</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>231155</v>
+        <v>232255</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4903152440429441</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4407508960943023</v>
+        <v>0.4403939746251236</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5372817724234743</v>
+        <v>0.5398394797902275</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>363</v>
@@ -2765,19 +2765,19 @@
         <v>371201</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>343743</v>
+        <v>342039</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>402162</v>
+        <v>403919</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4197325332544786</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3886845021238057</v>
+        <v>0.386757831056736</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.45474094880099</v>
+        <v>0.4567275797933072</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>293893</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>273203</v>
+        <v>273309</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>313506</v>
+        <v>313639</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6471331347303472</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6015759338926339</v>
+        <v>0.6018076013330401</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6903192237366678</v>
+        <v>0.690611895135361</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>218</v>
@@ -2815,19 +2815,19 @@
         <v>219282</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>199075</v>
+        <v>197975</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>240606</v>
+        <v>240759</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5096847559570559</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.462718227576526</v>
+        <v>0.4601605202097727</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5592491039056977</v>
+        <v>0.5596060253748765</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>504</v>
@@ -2836,19 +2836,19 @@
         <v>513175</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>482214</v>
+        <v>480457</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>540633</v>
+        <v>542337</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5802674667455213</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5452590511990101</v>
+        <v>0.5432724202066929</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6113154978761945</v>
+        <v>0.613242168943264</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>304642</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>281765</v>
+        <v>280358</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>336027</v>
+        <v>332316</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4433824385687272</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4100868439203631</v>
+        <v>0.4080380890758133</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4890596813687973</v>
+        <v>0.4836599163187421</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>318</v>
@@ -2961,19 +2961,19 @@
         <v>339228</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>314373</v>
+        <v>311965</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>364864</v>
+        <v>360973</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5558796910530912</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5151507283835988</v>
+        <v>0.5112036965879382</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5978877046558523</v>
+        <v>0.5915117960693661</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>610</v>
@@ -2982,19 +2982,19 @@
         <v>643871</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>605422</v>
+        <v>605740</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>680182</v>
+        <v>682856</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4962998906031867</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4666634747278138</v>
+        <v>0.4669087559262706</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5242890824546543</v>
+        <v>0.5263503678914</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>382445</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>351060</v>
+        <v>354771</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>405322</v>
+        <v>406729</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5566175614312728</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5109403186312026</v>
+        <v>0.5163400836812579</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5899131560796371</v>
+        <v>0.5919619109241867</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>253</v>
@@ -3032,19 +3032,19 @@
         <v>271027</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>245391</v>
+        <v>249282</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>295882</v>
+        <v>298290</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4441203089469088</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4021122953441477</v>
+        <v>0.4084882039306338</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4848492716164013</v>
+        <v>0.4887963034120618</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>628</v>
@@ -3053,19 +3053,19 @@
         <v>653471</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>617160</v>
+        <v>614486</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>691920</v>
+        <v>691602</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5037001093968133</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4757109175453457</v>
+        <v>0.4736496321085999</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5333365252721866</v>
+        <v>0.5330912440737294</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>346725</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>318781</v>
+        <v>318689</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>373545</v>
+        <v>372675</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.508495915744571</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4675150369611053</v>
+        <v>0.4673799587250363</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5478303191438587</v>
+        <v>0.5465545649739657</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>429</v>
@@ -3178,19 +3178,19 @@
         <v>453335</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>425624</v>
+        <v>425281</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>480818</v>
+        <v>478935</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.637736402145025</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5987534758006609</v>
+        <v>0.5982704746075794</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6763986999665469</v>
+        <v>0.6737495199925637</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>760</v>
@@ -3199,19 +3199,19 @@
         <v>800059</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>759367</v>
+        <v>760655</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>838747</v>
+        <v>838525</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5744611221146338</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5452432398972965</v>
+        <v>0.5461678563474383</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6022404127950871</v>
+        <v>0.6020808583510264</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>335138</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>308318</v>
+        <v>309188</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>363082</v>
+        <v>363174</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.491504084255429</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4521696808561412</v>
+        <v>0.4534454350260343</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5324849630388947</v>
+        <v>0.5326200412749639</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>238</v>
@@ -3249,19 +3249,19 @@
         <v>257515</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>230032</v>
+        <v>231915</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>285226</v>
+        <v>285569</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3622635978549749</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3236013000334532</v>
+        <v>0.3262504800074363</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4012465241993391</v>
+        <v>0.4017295253924205</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>558</v>
@@ -3270,19 +3270,19 @@
         <v>592653</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>553965</v>
+        <v>554187</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>633345</v>
+        <v>632057</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4255388778853662</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3977595872049129</v>
+        <v>0.3979191416489741</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4547567601027037</v>
+        <v>0.453832143652562</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>331367</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>304151</v>
+        <v>302882</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>355388</v>
+        <v>355538</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5391434231829009</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4948622958141727</v>
+        <v>0.4927981188003671</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5782266705977606</v>
+        <v>0.5784702729614248</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>348</v>
@@ -3395,19 +3395,19 @@
         <v>394632</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>369491</v>
+        <v>367487</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>420772</v>
+        <v>420415</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6404301542857918</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5996300516988007</v>
+        <v>0.5963771676021733</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6828515514105294</v>
+        <v>0.682270906014146</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>644</v>
@@ -3416,19 +3416,19 @@
         <v>725999</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>687471</v>
+        <v>689604</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>762674</v>
+        <v>763837</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5898518993064353</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5585486284642127</v>
+        <v>0.5602819190295592</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6196488055203898</v>
+        <v>0.6205936271220744</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>283250</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>259229</v>
+        <v>259079</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>310466</v>
+        <v>311735</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4608565768170991</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4217733294022394</v>
+        <v>0.4215297270385752</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5051377041858273</v>
+        <v>0.5072018811996329</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>191</v>
@@ -3466,19 +3466,19 @@
         <v>221567</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>195427</v>
+        <v>195784</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>246708</v>
+        <v>248712</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3595698457142082</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3171484485894705</v>
+        <v>0.317729093985854</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4003699483011994</v>
+        <v>0.4036228323978267</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>443</v>
@@ -3487,19 +3487,19 @@
         <v>504817</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>468142</v>
+        <v>466979</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>543345</v>
+        <v>541212</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4101481006935647</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3803511944796101</v>
+        <v>0.3794063728779256</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4414513715357867</v>
+        <v>0.4397180809704408</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>236263</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>214333</v>
+        <v>215251</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>256289</v>
+        <v>257402</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5501804293434177</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4991118997733767</v>
+        <v>0.5012488150114601</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5968126578973451</v>
+        <v>0.5994041407917529</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>276</v>
@@ -3612,19 +3612,19 @@
         <v>308224</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>285051</v>
+        <v>289925</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>328031</v>
+        <v>330113</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6883079028915394</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6365583482837376</v>
+        <v>0.6474419989633787</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7325398267757928</v>
+        <v>0.7371885870767002</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>495</v>
@@ -3633,19 +3633,19 @@
         <v>544488</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>516404</v>
+        <v>513565</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>576604</v>
+        <v>573326</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6206904915696251</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5886765546000355</v>
+        <v>0.5854404198490792</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6573014098896121</v>
+        <v>0.6535650118963811</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>193166</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>173140</v>
+        <v>172027</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>215096</v>
+        <v>214178</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4498195706565822</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4031873421026549</v>
+        <v>0.4005958592082472</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5008881002266232</v>
+        <v>0.4987511849885398</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>130</v>
@@ -3683,19 +3683,19 @@
         <v>139576</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>119769</v>
+        <v>117687</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>162749</v>
+        <v>157875</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3116920971084606</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.267460173224207</v>
+        <v>0.2628114129232998</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3634416517162621</v>
+        <v>0.3525580010366212</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>304</v>
@@ -3704,19 +3704,19 @@
         <v>332741</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>300625</v>
+        <v>303903</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>360825</v>
+        <v>363664</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3793095084303749</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3426985901103879</v>
+        <v>0.3464349881036189</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4113234453999645</v>
+        <v>0.4145595801509209</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>156866</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>138009</v>
+        <v>138096</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>174141</v>
+        <v>173865</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5063685113773149</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4454982544885804</v>
+        <v>0.445778499041997</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5621348170611828</v>
+        <v>0.5612412318962469</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>225</v>
@@ -3829,19 +3829,19 @@
         <v>229643</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>212792</v>
+        <v>210511</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>248200</v>
+        <v>247228</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.648715990216683</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6011144686775908</v>
+        <v>0.5946696975440461</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7011382586603392</v>
+        <v>0.6983909065174002</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>369</v>
@@ -3850,19 +3850,19 @@
         <v>386509</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>360114</v>
+        <v>360064</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>412172</v>
+        <v>413925</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5822826281804193</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.542517888774817</v>
+        <v>0.5424436219761408</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6209444531323295</v>
+        <v>0.6235855639780137</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>152920</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>135645</v>
+        <v>135921</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>171777</v>
+        <v>171690</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4936314886226851</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4378651829388172</v>
+        <v>0.4387587681037531</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5545017455114196</v>
+        <v>0.554221500958003</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>119</v>
@@ -3900,19 +3900,19 @@
         <v>124353</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>105796</v>
+        <v>106768</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>141204</v>
+        <v>143485</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3512840097833169</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2988617413396609</v>
+        <v>0.3016090934825999</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3988855313224093</v>
+        <v>0.4053303024559539</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>257</v>
@@ -3921,19 +3921,19 @@
         <v>277273</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>251610</v>
+        <v>249857</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>303668</v>
+        <v>303718</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4177173718195806</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3790555468676705</v>
+        <v>0.3764144360219863</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4574821112251827</v>
+        <v>0.4575563780238592</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>143077</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>126368</v>
+        <v>126568</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>160069</v>
+        <v>159290</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5726483160760378</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5057743894031693</v>
+        <v>0.5065758320184414</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.640657848403113</v>
+        <v>0.637541043607659</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>239</v>
@@ -4046,19 +4046,19 @@
         <v>265313</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>246328</v>
+        <v>246499</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>284700</v>
+        <v>284638</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6820740984180889</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6332680604047696</v>
+        <v>0.6337070717956073</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7319159465091113</v>
+        <v>0.7317564071996044</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>366</v>
@@ -4067,19 +4067,19 @@
         <v>408389</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>382988</v>
+        <v>384432</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>434199</v>
+        <v>432442</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6392769043598978</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5995154278177385</v>
+        <v>0.6017750591320264</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6796782955394595</v>
+        <v>0.6769281334554125</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>106774</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>89782</v>
+        <v>90561</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>123483</v>
+        <v>123283</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4273516839239622</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3593421515968871</v>
+        <v>0.362458956392341</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4942256105968307</v>
+        <v>0.4934241679815584</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>111</v>
@@ -4117,19 +4117,19 @@
         <v>123666</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>104279</v>
+        <v>104341</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>142651</v>
+        <v>142480</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3179259015819111</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2680840534908888</v>
+        <v>0.2682435928003955</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3667319395952305</v>
+        <v>0.3662929282043928</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>206</v>
@@ -4138,19 +4138,19 @@
         <v>230441</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>204631</v>
+        <v>206388</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>255842</v>
+        <v>254398</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3607230956401021</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3203217044605405</v>
+        <v>0.3230718665445875</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4004845721822615</v>
+        <v>0.3982249408679736</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>1679193</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1620051</v>
+        <v>1617467</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1739126</v>
+        <v>1739967</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4900206961911181</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4727619155116248</v>
+        <v>0.4720079417561156</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5075103626492773</v>
+        <v>0.5077559641525569</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2038</v>
@@ -4263,19 +4263,19 @@
         <v>2201324</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2141764</v>
+        <v>2137402</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2262867</v>
+        <v>2258182</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6186431929966874</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.601905128453436</v>
+        <v>0.6006790568844488</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6359387755816222</v>
+        <v>0.6346222743435425</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3607</v>
@@ -4284,19 +4284,19 @@
         <v>3880516</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3796052</v>
+        <v>3791818</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3967393</v>
+        <v>3966320</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5555429348129856</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5434508822586638</v>
+        <v>0.5428446471638374</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5679803352596084</v>
+        <v>0.567826732978135</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>1747586</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1687653</v>
+        <v>1686812</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1806728</v>
+        <v>1809312</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5099793038088819</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4924896373507227</v>
+        <v>0.492244035847443</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5272380844883751</v>
+        <v>0.5279920582438843</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1260</v>
@@ -4334,19 +4334,19 @@
         <v>1356985</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1295442</v>
+        <v>1300127</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1416545</v>
+        <v>1420907</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3813568070033126</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3640612244183778</v>
+        <v>0.3653777256564579</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3980948715465641</v>
+        <v>0.3993209431155514</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2900</v>
@@ -4355,19 +4355,19 @@
         <v>3104572</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3017695</v>
+        <v>3018768</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3189036</v>
+        <v>3193270</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4444570651870144</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4320196647403913</v>
+        <v>0.4321732670218649</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4565491177413359</v>
+        <v>0.4571553528361624</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>140581</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>122680</v>
+        <v>122121</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>161368</v>
+        <v>160346</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3351456449291796</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2924689297425354</v>
+        <v>0.2911373743517309</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3847020442683744</v>
+        <v>0.3822638781850528</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>179</v>
@@ -4723,19 +4723,19 @@
         <v>174036</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>155338</v>
+        <v>156397</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>195683</v>
+        <v>193624</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4397562222721772</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3925106779140988</v>
+        <v>0.3951873533232762</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4944551438238715</v>
+        <v>0.4892510871256168</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>311</v>
@@ -4744,19 +4744,19 @@
         <v>314617</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>286663</v>
+        <v>286588</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>343588</v>
+        <v>346090</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3859298023833195</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3516402712024676</v>
+        <v>0.3515477241074402</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4214675659351016</v>
+        <v>0.4245367784000403</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>278882</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>258095</v>
+        <v>259117</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>296783</v>
+        <v>297342</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6648543550708204</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6152979557316256</v>
+        <v>0.617736121814947</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7075310702574646</v>
+        <v>0.708862625648269</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>225</v>
@@ -4794,19 +4794,19 @@
         <v>221719</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>200072</v>
+        <v>202131</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>240417</v>
+        <v>239358</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5602437777278227</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5055448561761284</v>
+        <v>0.5107489128743832</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6074893220859011</v>
+        <v>0.6048126466767237</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>486</v>
@@ -4815,19 +4815,19 @@
         <v>500601</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>471630</v>
+        <v>469128</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>528555</v>
+        <v>528630</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6140701976166805</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5785324340648987</v>
+        <v>0.5754632215999598</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6483597287975325</v>
+        <v>0.6484522758925598</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>271021</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>247407</v>
+        <v>244688</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>296028</v>
+        <v>295288</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4589712711605018</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.418981261936438</v>
+        <v>0.4143770181117896</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5013203926836691</v>
+        <v>0.500068572559041</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>286</v>
@@ -4940,19 +4940,19 @@
         <v>277381</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>254794</v>
+        <v>252089</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>300086</v>
+        <v>300194</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4922083400879972</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4521286004611635</v>
+        <v>0.4473288210627773</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5324982870015735</v>
+        <v>0.5326887347119306</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>542</v>
@@ -4961,19 +4961,19 @@
         <v>548402</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>517050</v>
+        <v>515870</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>585298</v>
+        <v>583497</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4752016801063932</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4480343880487426</v>
+        <v>0.4470125141466456</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5071730915340695</v>
+        <v>0.5056126552218227</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>319475</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>294468</v>
+        <v>295208</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>343089</v>
+        <v>345808</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5410287288394982</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4986796073163308</v>
+        <v>0.4999314274409589</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.581018738063562</v>
+        <v>0.5856229818882105</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>293</v>
@@ -5011,19 +5011,19 @@
         <v>286163</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>263458</v>
+        <v>263350</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>308750</v>
+        <v>311455</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5077916599120028</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4675017129984264</v>
+        <v>0.4673112652880695</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5478713995388365</v>
+        <v>0.5526711789372227</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>604</v>
@@ -5032,19 +5032,19 @@
         <v>605638</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>568742</v>
+        <v>570543</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>636990</v>
+        <v>638170</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5247983198936068</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4928269084659304</v>
+        <v>0.4943873447781771</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5519656119512575</v>
+        <v>0.552987485853354</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>321857</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>295498</v>
+        <v>295771</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>350128</v>
+        <v>347115</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4810313497943878</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4416375751076613</v>
+        <v>0.4420452689546644</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5232848427869904</v>
+        <v>0.5187816474707257</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>333</v>
@@ -5157,19 +5157,19 @@
         <v>328003</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>302890</v>
+        <v>304661</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>356017</v>
+        <v>353861</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4959333477455352</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4579617898245384</v>
+        <v>0.4606401975232783</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5382892785171721</v>
+        <v>0.5350290178585453</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>644</v>
@@ -5178,19 +5178,19 @@
         <v>649860</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>616173</v>
+        <v>611434</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>690133</v>
+        <v>684637</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4884391687622331</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4631197722281885</v>
+        <v>0.4595577705955932</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5187086140370923</v>
+        <v>0.5145775275702705</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>347240</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>318969</v>
+        <v>321982</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>373599</v>
+        <v>373326</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5189686502056122</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4767151572130096</v>
+        <v>0.4812183525292743</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5583624248923387</v>
+        <v>0.5579547310453356</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>332</v>
@@ -5228,19 +5228,19 @@
         <v>333383</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>305369</v>
+        <v>307525</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>358496</v>
+        <v>356725</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5040666522544648</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4617107214828279</v>
+        <v>0.4649709821414548</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5420382101754616</v>
+        <v>0.5393598024767218</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>659</v>
@@ -5249,19 +5249,19 @@
         <v>680623</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>640350</v>
+        <v>645846</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>714310</v>
+        <v>719049</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5115608312377669</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4812913859629077</v>
+        <v>0.4854224724297295</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5368802277718115</v>
+        <v>0.5404422294044069</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>344176</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>316094</v>
+        <v>318602</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>370282</v>
+        <v>369856</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5327404066384511</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4892729776534155</v>
+        <v>0.4931559979012907</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5731488108314575</v>
+        <v>0.5724906715790856</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>368</v>
@@ -5374,19 +5374,19 @@
         <v>393186</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>367410</v>
+        <v>367108</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>418564</v>
+        <v>415265</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6057621270614885</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5660497189037496</v>
+        <v>0.5655843673489581</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6448600763187902</v>
+        <v>0.6397769520484301</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>682</v>
@@ -5395,19 +5395,19 @@
         <v>737362</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>698447</v>
+        <v>699554</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>775629</v>
+        <v>774765</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.569336647227994</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5392892852508898</v>
+        <v>0.5401441973622119</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5988833866424731</v>
+        <v>0.5982162086559936</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>301872</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>275766</v>
+        <v>276192</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>329954</v>
+        <v>327446</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4672595933615488</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4268511891685424</v>
+        <v>0.4275093284209144</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5107270223465846</v>
+        <v>0.5068440020987092</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>234</v>
@@ -5445,19 +5445,19 @@
         <v>255891</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>230513</v>
+        <v>233812</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>281667</v>
+        <v>281969</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3942378729385115</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3551399236812099</v>
+        <v>0.3602230479515701</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4339502810962506</v>
+        <v>0.434415632651042</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>502</v>
@@ -5466,19 +5466,19 @@
         <v>557763</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>519496</v>
+        <v>520360</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>596678</v>
+        <v>595571</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4306633527720059</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.401116613357527</v>
+        <v>0.4017837913440064</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4607107147491102</v>
+        <v>0.459855802637788</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>247580</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>222882</v>
+        <v>224374</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>269742</v>
+        <v>269210</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5180393286623562</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4663610744943174</v>
+        <v>0.4694822833496263</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5644109258583423</v>
+        <v>0.5632966037512981</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>270</v>
@@ -5591,19 +5591,19 @@
         <v>307416</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>284334</v>
+        <v>282432</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>330057</v>
+        <v>329048</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.61873031609569</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5722736313688809</v>
+        <v>0.5684456337167444</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6643014264077354</v>
+        <v>0.6622702631017503</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>490</v>
@@ -5612,19 +5612,19 @@
         <v>554996</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>524434</v>
+        <v>521484</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>589459</v>
+        <v>588359</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5693625849504376</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5380099492148918</v>
+        <v>0.5349832263619317</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6047174543048506</v>
+        <v>0.6035894527530826</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>230338</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>208176</v>
+        <v>208708</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>255036</v>
+        <v>253544</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4819606713376438</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4355890741416579</v>
+        <v>0.4367033962487021</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5336389255056827</v>
+        <v>0.5305177166503736</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>163</v>
@@ -5662,19 +5662,19 @@
         <v>189433</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>166792</v>
+        <v>167801</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>212515</v>
+        <v>214417</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3812696839043101</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3356985735922647</v>
+        <v>0.33772973689825</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4277263686311191</v>
+        <v>0.431554366283256</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>367</v>
@@ -5683,19 +5683,19 @@
         <v>419771</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>385308</v>
+        <v>386408</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>450333</v>
+        <v>453283</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4306374150495624</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3952825456951495</v>
+        <v>0.3964105472469173</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4619900507851085</v>
+        <v>0.4650167736380681</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>169614</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>150178</v>
+        <v>150768</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>185711</v>
+        <v>188710</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5073250046825172</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4491901333805183</v>
+        <v>0.4509543337290068</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5554723807084605</v>
+        <v>0.5644412794276277</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>210</v>
@@ -5808,19 +5808,19 @@
         <v>221838</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>202446</v>
+        <v>200771</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>240447</v>
+        <v>241285</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5872423369062666</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5359092153996514</v>
+        <v>0.5314752757476754</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6365040350799003</v>
+        <v>0.6387228751469114</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>375</v>
@@ -5829,19 +5829,19 @@
         <v>391452</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>364274</v>
+        <v>363268</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>418455</v>
+        <v>415425</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5497208347067287</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5115547639369208</v>
+        <v>0.5101425221230916</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5876424273257943</v>
+        <v>0.5833871368134067</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>164716</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>148619</v>
+        <v>145620</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>184152</v>
+        <v>183562</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4926749953174828</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4445276192915395</v>
+        <v>0.4355587205723723</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5508098666194816</v>
+        <v>0.549045666270993</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>144</v>
@@ -5879,19 +5879,19 @@
         <v>155924</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>137315</v>
+        <v>136477</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>175316</v>
+        <v>176991</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4127576630937334</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3634959649200998</v>
+        <v>0.3612771248530886</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4640907846003486</v>
+        <v>0.4685247242523249</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>304</v>
@@ -5900,19 +5900,19 @@
         <v>320640</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>293637</v>
+        <v>296667</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>347818</v>
+        <v>348824</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4502791652932713</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4123575726742056</v>
+        <v>0.4166128631865931</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4884452360630792</v>
+        <v>0.4898574778769084</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>139602</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>124852</v>
+        <v>125402</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>154110</v>
+        <v>154896</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5432021155770386</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4858087175476931</v>
+        <v>0.4879484691392656</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5996544606451405</v>
+        <v>0.602713400720617</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>183</v>
@@ -6025,19 +6025,19 @@
         <v>241997</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>219097</v>
+        <v>216093</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>261115</v>
+        <v>264018</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6047368914115988</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5475116460398822</v>
+        <v>0.5400054413600321</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6525121644655322</v>
+        <v>0.6597669438596721</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>347</v>
@@ -6046,19 +6046,19 @@
         <v>381599</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>354483</v>
+        <v>352485</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>408108</v>
+        <v>408592</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5806725145126708</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5394102685058577</v>
+        <v>0.5363704640258906</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6210115728667325</v>
+        <v>0.6217471629980087</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>117396</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>102888</v>
+        <v>102102</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>132146</v>
+        <v>131596</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4567978844229615</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4003455393548595</v>
+        <v>0.397286599279383</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5141912824523067</v>
+        <v>0.5120515308607344</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>118</v>
@@ -6096,19 +6096,19 @@
         <v>158172</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>139054</v>
+        <v>136151</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>181072</v>
+        <v>184076</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3952631085884012</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.347487835534468</v>
+        <v>0.3402330561403282</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4524883539601179</v>
+        <v>0.4599945586399679</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>256</v>
@@ -6117,19 +6117,19 @@
         <v>275568</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>249059</v>
+        <v>248575</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>302684</v>
+        <v>304682</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4193274854873292</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3789884271332676</v>
+        <v>0.3782528370019914</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4605897314941435</v>
+        <v>0.4636295359741094</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>1634431</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1577380</v>
+        <v>1570431</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1697191</v>
+        <v>1691418</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4815150355797339</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4647076255515625</v>
+        <v>0.4626602087230561</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.500004738047739</v>
+        <v>0.4983040676580651</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1829</v>
@@ -6242,19 +6242,19 @@
         <v>1943857</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1884316</v>
+        <v>1878866</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2005065</v>
+        <v>2003528</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5484084415923026</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5316105152113435</v>
+        <v>0.5300729822659244</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5656768869817007</v>
+        <v>0.5652430059532721</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3391</v>
@@ -6263,19 +6263,19 @@
         <v>3578287</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3493703</v>
+        <v>3496204</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3664130</v>
+        <v>3654894</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5156856892484182</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5034957511439434</v>
+        <v>0.5038563021554011</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5280568980529647</v>
+        <v>0.5267258262939751</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>1759919</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1697159</v>
+        <v>1702932</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1816970</v>
+        <v>1823919</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5184849644202661</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4999952619522611</v>
+        <v>0.5016959323419349</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5352923744484377</v>
+        <v>0.5373397912769439</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1509</v>
@@ -6313,19 +6313,19 @@
         <v>1600685</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1539477</v>
+        <v>1541014</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1660226</v>
+        <v>1665676</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4515915584076973</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4343231130182993</v>
+        <v>0.4347569940467276</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4683894847886564</v>
+        <v>0.4699270177340757</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3178</v>
@@ -6334,19 +6334,19 @@
         <v>3360605</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3274762</v>
+        <v>3283998</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3445189</v>
+        <v>3442688</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4843143107515819</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4719431019470353</v>
+        <v>0.4732741737060251</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4965042488560567</v>
+        <v>0.4961436978445989</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>119506</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>92389</v>
+        <v>90348</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>150679</v>
+        <v>152721</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2930556116768513</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2265593976811739</v>
+        <v>0.2215545921434592</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3694998127687293</v>
+        <v>0.3745062741260363</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>73</v>
@@ -6702,19 +6702,19 @@
         <v>134510</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>109819</v>
+        <v>110426</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>159741</v>
+        <v>159399</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3725886158167992</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3041964886989269</v>
+        <v>0.3058762713055272</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4424764610777348</v>
+        <v>0.4415299408100345</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>122</v>
@@ -6723,19 +6723,19 @@
         <v>254016</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>212363</v>
+        <v>217982</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>290118</v>
+        <v>293204</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3304025310665012</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2762227673274758</v>
+        <v>0.2835325882834542</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.37736031886599</v>
+        <v>0.3813743486216435</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>288287</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>257114</v>
+        <v>255072</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>315404</v>
+        <v>317445</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7069443883231488</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6305001872312704</v>
+        <v>0.6254937258739632</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7734406023188261</v>
+        <v>0.7784454078565407</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>133</v>
@@ -6773,19 +6773,19 @@
         <v>226505</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>201274</v>
+        <v>201616</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>251196</v>
+        <v>250589</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6274113841832009</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5575235389222651</v>
+        <v>0.5584700591899653</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6958035113010731</v>
+        <v>0.6941237286944728</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>256</v>
@@ -6794,19 +6794,19 @@
         <v>514793</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>478691</v>
+        <v>475605</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>556446</v>
+        <v>550827</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6695974689334988</v>
+        <v>0.6695974689334987</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.62263968113401</v>
+        <v>0.6186256513783565</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7237772326725244</v>
+        <v>0.7164674117165459</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>163176</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>136857</v>
+        <v>138110</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>188301</v>
+        <v>193464</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3421674227197314</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2869777925176556</v>
+        <v>0.2896055920633415</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3948529132584935</v>
+        <v>0.4056781305094393</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>188</v>
@@ -6919,19 +6919,19 @@
         <v>202386</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>179460</v>
+        <v>178589</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>225274</v>
+        <v>228424</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4043651654092667</v>
+        <v>0.4043651654092666</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3585589959274837</v>
+        <v>0.3568191105778964</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4500945499086203</v>
+        <v>0.4563883957431428</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>292</v>
@@ -6940,19 +6940,19 @@
         <v>365563</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>332100</v>
+        <v>329030</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>402435</v>
+        <v>399250</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3740176361655316</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3397813728214367</v>
+        <v>0.3366399399097665</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4117427192712531</v>
+        <v>0.4084844458379159</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>313714</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>288589</v>
+        <v>283426</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>340033</v>
+        <v>338780</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6578325772802684</v>
+        <v>0.6578325772802687</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6051470867415065</v>
+        <v>0.5943218694905607</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7130222074823445</v>
+        <v>0.7103944079366583</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>271</v>
@@ -6990,19 +6990,19 @@
         <v>298118</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>275230</v>
+        <v>272080</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>321044</v>
+        <v>321915</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5956348345907334</v>
+        <v>0.5956348345907332</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5499054500913793</v>
+        <v>0.5436116042568576</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6414410040725159</v>
+        <v>0.6431808894221042</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>469</v>
@@ -7011,19 +7011,19 @@
         <v>611831</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>574959</v>
+        <v>578144</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>645294</v>
+        <v>648364</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6259823638344685</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5882572807287469</v>
+        <v>0.5915155541620841</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6602186271785632</v>
+        <v>0.6633600600902335</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>224126</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>197958</v>
+        <v>198704</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>251235</v>
+        <v>250024</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3615817251587292</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3193649844941042</v>
+        <v>0.3205680809132718</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4053164694224087</v>
+        <v>0.4033621025228909</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>392</v>
@@ -7136,19 +7136,19 @@
         <v>282361</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>260104</v>
+        <v>260966</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>304147</v>
+        <v>304011</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4544249733063948</v>
+        <v>0.4544249733063949</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4186061995519515</v>
+        <v>0.4199934923720374</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4894872819915784</v>
+        <v>0.4892682456354561</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>598</v>
@@ -7157,19 +7157,19 @@
         <v>506487</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>471123</v>
+        <v>476878</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>537952</v>
+        <v>541920</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4080598004567363</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.379568722374219</v>
+        <v>0.3842051400411686</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4334100154922697</v>
+        <v>0.436607332842328</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>395723</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>368614</v>
+        <v>369825</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>421891</v>
+        <v>421145</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6384182748412708</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5946835305775912</v>
+        <v>0.596637897477109</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6806350155058959</v>
+        <v>0.6794319190867283</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>453</v>
@@ -7207,19 +7207,19 @@
         <v>338997</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>317211</v>
+        <v>317347</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>361254</v>
+        <v>360392</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5455750266936051</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5105127180084218</v>
+        <v>0.5107317543645442</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5813938004480488</v>
+        <v>0.5800065076279627</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>792</v>
@@ -7228,19 +7228,19 @@
         <v>734720</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>703255</v>
+        <v>699287</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>770084</v>
+        <v>764329</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5919401995432637</v>
+        <v>0.5919401995432638</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5665899845077302</v>
+        <v>0.563392667157672</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.620431277625781</v>
+        <v>0.6157948599588315</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>303351</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>277167</v>
+        <v>276778</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>331951</v>
+        <v>331373</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4342406646694035</v>
+        <v>0.4342406646694036</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3967578710053806</v>
+        <v>0.3962020018931757</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4751808513716287</v>
+        <v>0.4743523769124633</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>590</v>
@@ -7353,19 +7353,19 @@
         <v>381377</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>359063</v>
+        <v>357547</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>402536</v>
+        <v>401452</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5201570322671927</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4897236220153818</v>
+        <v>0.4876555855133232</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5490153270026118</v>
+        <v>0.5475364646974896</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>882</v>
@@ -7374,19 +7374,19 @@
         <v>684728</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>654783</v>
+        <v>651754</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>720456</v>
+        <v>719652</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4782374779465691</v>
+        <v>0.478237477946569</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4573228106146107</v>
+        <v>0.4552072222514659</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5031908223501942</v>
+        <v>0.5026295126041794</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>395228</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>366628</v>
+        <v>367206</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>421412</v>
+        <v>421801</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5657593353305965</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5248191486283711</v>
+        <v>0.5256476230875367</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6032421289946192</v>
+        <v>0.6037979981068241</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>545</v>
@@ -7424,19 +7424,19 @@
         <v>351819</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>330660</v>
+        <v>331744</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>374133</v>
+        <v>375649</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4798429677328073</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.450984672997388</v>
+        <v>0.45246353530251</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5102763779846182</v>
+        <v>0.5123444144866768</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>916</v>
@@ -7445,19 +7445,19 @@
         <v>747047</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>711319</v>
+        <v>712123</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>776992</v>
+        <v>780021</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.521762522053431</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4968091776498058</v>
+        <v>0.4973704873958204</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5426771893853893</v>
+        <v>0.5447927777485342</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>294214</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>269768</v>
+        <v>270056</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>315506</v>
+        <v>318434</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4884929456706066</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4479030889111214</v>
+        <v>0.4483815517180837</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5238433755971323</v>
+        <v>0.5287057597513515</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>580</v>
@@ -7570,19 +7570,19 @@
         <v>350506</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>333308</v>
+        <v>332829</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>371373</v>
+        <v>369911</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5779295287348878</v>
+        <v>0.5779295287348877</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5495737136424583</v>
+        <v>0.54878283826429</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6123368080220155</v>
+        <v>0.6099260450842966</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>912</v>
@@ -7591,19 +7591,19 @@
         <v>644720</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>614699</v>
+        <v>609413</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>677880</v>
+        <v>673839</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5333664183555508</v>
+        <v>0.5333664183555509</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5085306978893798</v>
+        <v>0.504157299500938</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5607993117739182</v>
+        <v>0.5574562550873774</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>308076</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>286784</v>
+        <v>283856</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>332522</v>
+        <v>332234</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5115070543293934</v>
+        <v>0.5115070543293933</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4761566244028675</v>
+        <v>0.4712942402486487</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5520969110888783</v>
+        <v>0.5516184482819164</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>418</v>
@@ -7641,19 +7641,19 @@
         <v>255979</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>235112</v>
+        <v>236574</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>273177</v>
+        <v>273656</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4220704712651123</v>
+        <v>0.4220704712651122</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.387663191977984</v>
+        <v>0.3900739549157034</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4504262863575409</v>
+        <v>0.4512171617357099</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>744</v>
@@ -7662,19 +7662,19 @@
         <v>564055</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>530895</v>
+        <v>534936</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>594076</v>
+        <v>599362</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.466633581644449</v>
+        <v>0.4666335816444491</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4392006882260819</v>
+        <v>0.4425437449126226</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4914693021106201</v>
+        <v>0.4958427004990625</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>195363</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>178151</v>
+        <v>176939</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>211307</v>
+        <v>212667</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4858656243673443</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4430594317248845</v>
+        <v>0.4400450341991914</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5255192255603517</v>
+        <v>0.5289023717147466</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>455</v>
@@ -7787,19 +7787,19 @@
         <v>244552</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>229361</v>
+        <v>230049</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>260433</v>
+        <v>258922</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5592966335931684</v>
+        <v>0.5592966335931685</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5245524959625846</v>
+        <v>0.5261274079556557</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5956158868335547</v>
+        <v>0.5921589889619858</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>735</v>
@@ -7808,19 +7808,19 @@
         <v>439915</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>417043</v>
+        <v>417381</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>460627</v>
+        <v>463018</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.5241190300595147</v>
+        <v>0.5241190300595148</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4968693259041271</v>
+        <v>0.4972719437444644</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5487953628631805</v>
+        <v>0.5516442367022814</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>206729</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>190785</v>
+        <v>189425</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>223941</v>
+        <v>225153</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5141343756326557</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4744807744396484</v>
+        <v>0.4710976282852534</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5569405682751155</v>
+        <v>0.5599549658008086</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>369</v>
@@ -7858,19 +7858,19 @@
         <v>192698</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>176817</v>
+        <v>178328</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>207889</v>
+        <v>207201</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4407033664068314</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4043841131664455</v>
+        <v>0.4078410110380143</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4754475040374156</v>
+        <v>0.4738725920443443</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>653</v>
@@ -7879,19 +7879,19 @@
         <v>399427</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>378715</v>
+        <v>376324</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>422299</v>
+        <v>421961</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4758809699404852</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4512046371368195</v>
+        <v>0.4483557632977187</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5031306740958726</v>
+        <v>0.5027280562555358</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>171245</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>157074</v>
+        <v>157539</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>184971</v>
+        <v>187094</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5566967231705801</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5106290560135563</v>
+        <v>0.5121401322902762</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6013173183899992</v>
+        <v>0.6082195367729327</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>555</v>
@@ -8004,19 +8004,19 @@
         <v>290495</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>275226</v>
+        <v>273786</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>306033</v>
+        <v>305306</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6373043876551784</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6038047203985779</v>
+        <v>0.6006473991163236</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6713906207325016</v>
+        <v>0.6697965489955267</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>812</v>
@@ -8025,19 +8025,19 @@
         <v>461740</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>440049</v>
+        <v>440654</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>482373</v>
+        <v>483805</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6048250736730918</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5764113141362203</v>
+        <v>0.5772044392140638</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6318512542562795</v>
+        <v>0.6337272085704826</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>136364</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>122638</v>
+        <v>120515</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>150535</v>
+        <v>150070</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4433032768294199</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3986826816100009</v>
+        <v>0.3917804632270677</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4893709439864436</v>
+        <v>0.4878598677097246</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>309</v>
@@ -8075,19 +8075,19 @@
         <v>165324</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>149786</v>
+        <v>150513</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>180593</v>
+        <v>182033</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3626956123448216</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3286093792674983</v>
+        <v>0.3302034510044733</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3961952796014219</v>
+        <v>0.3993526008836764</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>506</v>
@@ -8096,19 +8096,19 @@
         <v>301688</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>281055</v>
+        <v>279623</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>323379</v>
+        <v>322774</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3951749263269081</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3681487457437206</v>
+        <v>0.3662727914295176</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.42358868586378</v>
+        <v>0.4227955607859363</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>1470982</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1410454</v>
+        <v>1408774</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1536472</v>
+        <v>1532606</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4184748211465575</v>
+        <v>0.4184748211465576</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4012554461106523</v>
+        <v>0.4007775378943373</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4371058586141767</v>
+        <v>0.4360059590654434</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2833</v>
@@ -8221,19 +8221,19 @@
         <v>1886188</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1832486</v>
+        <v>1829329</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1942731</v>
+        <v>1937551</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.5076364165484988</v>
+        <v>0.5076364165484987</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.493183562784454</v>
+        <v>0.4923339000398586</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.522854044632561</v>
+        <v>0.5214599813820711</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4353</v>
@@ -8242,19 +8242,19 @@
         <v>3357170</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3274601</v>
+        <v>3271550</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3444627</v>
+        <v>3433110</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4642919476804128</v>
+        <v>0.4642919476804127</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4528728016253796</v>
+        <v>0.452450867742862</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4763871265550031</v>
+        <v>0.4747944123894549</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2044121</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1978631</v>
+        <v>1982497</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2104649</v>
+        <v>2106329</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5815251788534423</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5628941413858233</v>
+        <v>0.5639940409345566</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5987445538893479</v>
+        <v>0.5992224621056627</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2498</v>
@@ -8292,19 +8292,19 @@
         <v>1829439</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1772896</v>
+        <v>1778076</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1883141</v>
+        <v>1886298</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4923635834515013</v>
+        <v>0.4923635834515012</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4771459553674391</v>
+        <v>0.4785400186179291</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5068164372155459</v>
+        <v>0.5076660999601419</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4336</v>
@@ -8313,19 +8313,19 @@
         <v>3873560</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3786103</v>
+        <v>3797620</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3956129</v>
+        <v>3959180</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5357080523195873</v>
+        <v>0.5357080523195872</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5236128734449971</v>
+        <v>0.5252055876105451</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5471271983746206</v>
+        <v>0.5475491322571374</v>
       </c>
     </row>
     <row r="27">
